--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tg-Asgr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tg-Asgr1.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.030842333333333</v>
+        <v>0.01136233333333333</v>
       </c>
       <c r="H2">
-        <v>3.092527</v>
+        <v>0.034087</v>
       </c>
       <c r="I2">
-        <v>0.7593378091926586</v>
+        <v>0.03319472577126831</v>
       </c>
       <c r="J2">
-        <v>0.7593378091926584</v>
+        <v>0.03319472577126831</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,25 +555,25 @@
         <v>1.164453</v>
       </c>
       <c r="N2">
-        <v>3.493358999999999</v>
+        <v>3.493359</v>
       </c>
       <c r="O2">
-        <v>0.7897445044585573</v>
+        <v>0.9853654560111834</v>
       </c>
       <c r="P2">
-        <v>0.7897445044585572</v>
+        <v>0.9853654560111834</v>
       </c>
       <c r="Q2">
-        <v>1.200367447577</v>
+        <v>0.013230903137</v>
       </c>
       <c r="R2">
-        <v>10.803307028193</v>
+        <v>0.119078128233</v>
       </c>
       <c r="S2">
-        <v>0.5996828618375026</v>
+        <v>0.03270893609677198</v>
       </c>
       <c r="T2">
-        <v>0.5996828618375024</v>
+        <v>0.03270893609677198</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,46 +596,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.030842333333333</v>
+        <v>0.01136233333333333</v>
       </c>
       <c r="H3">
-        <v>3.092527</v>
+        <v>0.034087</v>
       </c>
       <c r="I3">
-        <v>0.7593378091926586</v>
+        <v>0.03319472577126831</v>
       </c>
       <c r="J3">
-        <v>0.7593378091926584</v>
+        <v>0.03319472577126831</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.310015</v>
+        <v>0.01729433333333333</v>
       </c>
       <c r="N3">
-        <v>0.930045</v>
+        <v>0.051883</v>
       </c>
       <c r="O3">
-        <v>0.2102554955414428</v>
+        <v>0.01463454398881656</v>
       </c>
       <c r="P3">
-        <v>0.2102554955414428</v>
+        <v>0.01463454398881656</v>
       </c>
       <c r="Q3">
-        <v>0.3195765859683333</v>
+        <v>0.0001965039801111111</v>
       </c>
       <c r="R3">
-        <v>2.876189273715</v>
+        <v>0.001768535821</v>
       </c>
       <c r="S3">
-        <v>0.159654947355156</v>
+        <v>0.0004857896744963287</v>
       </c>
       <c r="T3">
-        <v>0.1596549473551559</v>
+        <v>0.0004857896744963287</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.326712</v>
+        <v>0.330931</v>
       </c>
       <c r="H4">
-        <v>0.980136</v>
+        <v>0.992793</v>
       </c>
       <c r="I4">
-        <v>0.2406621908073416</v>
+        <v>0.9668052742287317</v>
       </c>
       <c r="J4">
-        <v>0.2406621908073415</v>
+        <v>0.9668052742287317</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>1.164453</v>
       </c>
       <c r="N4">
-        <v>3.493358999999999</v>
+        <v>3.493359</v>
       </c>
       <c r="O4">
-        <v>0.7897445044585573</v>
+        <v>0.9853654560111834</v>
       </c>
       <c r="P4">
-        <v>0.7897445044585572</v>
+        <v>0.9853654560111834</v>
       </c>
       <c r="Q4">
-        <v>0.3804407685359999</v>
+        <v>0.385353595743</v>
       </c>
       <c r="R4">
-        <v>3.423966916823999</v>
+        <v>3.468182361687</v>
       </c>
       <c r="S4">
-        <v>0.1900616426210547</v>
+        <v>0.9526565199144115</v>
       </c>
       <c r="T4">
-        <v>0.1900616426210547</v>
+        <v>0.9526565199144115</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.326712</v>
+        <v>0.330931</v>
       </c>
       <c r="H5">
-        <v>0.980136</v>
+        <v>0.992793</v>
       </c>
       <c r="I5">
-        <v>0.2406621908073416</v>
+        <v>0.9668052742287317</v>
       </c>
       <c r="J5">
-        <v>0.2406621908073415</v>
+        <v>0.9668052742287317</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.310015</v>
+        <v>0.01729433333333333</v>
       </c>
       <c r="N5">
-        <v>0.930045</v>
+        <v>0.051883</v>
       </c>
       <c r="O5">
-        <v>0.2102554955414428</v>
+        <v>0.01463454398881656</v>
       </c>
       <c r="P5">
-        <v>0.2102554955414428</v>
+        <v>0.01463454398881656</v>
       </c>
       <c r="Q5">
-        <v>0.10128562068</v>
+        <v>0.005723231024333334</v>
       </c>
       <c r="R5">
-        <v>0.91157058612</v>
+        <v>0.051509079219</v>
       </c>
       <c r="S5">
-        <v>0.05060054818628686</v>
+        <v>0.01414875431432023</v>
       </c>
       <c r="T5">
-        <v>0.05060054818628684</v>
+        <v>0.01414875431432023</v>
       </c>
     </row>
   </sheetData>
